--- a/cricStats.xlsx
+++ b/cricStats.xlsx
@@ -418,38 +418,38 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1087</v>
+        <v>1149</v>
       </c>
       <c r="C2" t="n">
-        <v>1282</v>
+        <v>1367</v>
       </c>
       <c r="D2" t="n">
-        <v>84.79000000000001</v>
+        <v>84.05</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>226.0</t>
+          <t>241.4</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1201</v>
+        <v>1292</v>
       </c>
       <c r="G2" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>921.67</v>
+        <v>965.73</v>
       </c>
       <c r="J2" t="n">
-        <v>711.3099999999999</v>
+        <v>733.98</v>
       </c>
       <c r="K2" t="n">
-        <v>1632.98</v>
+        <v>1699.71</v>
       </c>
     </row>
     <row r="3">
@@ -459,38 +459,38 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>933</v>
+        <v>979</v>
       </c>
       <c r="C3" t="n">
-        <v>1368</v>
+        <v>1435</v>
       </c>
       <c r="D3" t="n">
-        <v>68.2</v>
+        <v>68.22</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>235.0</t>
+          <t>251.2</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1332</v>
+        <v>1428</v>
       </c>
       <c r="G3" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5.67</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>636.3099999999999</v>
+        <v>667.87</v>
       </c>
       <c r="J3" t="n">
-        <v>825.6799999999999</v>
+        <v>874.39</v>
       </c>
       <c r="K3" t="n">
-        <v>1461.99</v>
+        <v>1542.26</v>
       </c>
     </row>
     <row r="4">
@@ -500,38 +500,38 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1146</v>
+        <v>1243</v>
       </c>
       <c r="C4" t="n">
-        <v>1505</v>
+        <v>1621</v>
       </c>
       <c r="D4" t="n">
-        <v>76.15000000000001</v>
+        <v>76.68000000000001</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>233.4</t>
+          <t>250.5</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1292</v>
+        <v>1364</v>
       </c>
       <c r="G4" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>5.44</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>872.6799999999999</v>
+        <v>953.13</v>
       </c>
       <c r="J4" t="n">
-        <v>846.41</v>
+        <v>913.59</v>
       </c>
       <c r="K4" t="n">
-        <v>1719.09</v>
+        <v>1866.72</v>
       </c>
     </row>
     <row r="5">
@@ -541,24 +541,24 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>916</v>
+        <v>985</v>
       </c>
       <c r="C5" t="n">
-        <v>1405</v>
+        <v>1521</v>
       </c>
       <c r="D5" t="n">
-        <v>65.2</v>
+        <v>64.76000000000001</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>234.1</t>
+          <t>249.0</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1274</v>
+        <v>1354</v>
       </c>
       <c r="G5" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -566,13 +566,13 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>597.23</v>
+        <v>637.89</v>
       </c>
       <c r="J5" t="n">
-        <v>754.33</v>
+        <v>794.45</v>
       </c>
       <c r="K5" t="n">
-        <v>1351.56</v>
+        <v>1432.34</v>
       </c>
     </row>
   </sheetData>
@@ -3225,6 +3225,368 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>4</v>
+      </c>
+      <c r="B59" t="n">
+        <v>8</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>10</v>
+      </c>
+      <c r="E59" t="n">
+        <v>17</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>58.82</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>15</v>
+      </c>
+      <c r="B60" t="n">
+        <v>11</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>136.36</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>3</v>
+      </c>
+      <c r="E60" t="n">
+        <v>11</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>27.27</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>12</v>
+      </c>
+      <c r="H60" t="n">
+        <v>20</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>60.00</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>1</v>
+      </c>
+      <c r="K60" t="n">
+        <v>4</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>33.33</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>43</v>
+      </c>
+      <c r="H61" t="n">
+        <v>42</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>102.38</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>13</v>
+      </c>
+      <c r="K61" t="n">
+        <v>18</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>72.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>4</v>
+      </c>
+      <c r="B62" t="n">
+        <v>7</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>57.14</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>30</v>
+      </c>
+      <c r="E62" t="n">
+        <v>43</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" t="n">
+        <v>4</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>3</v>
+      </c>
+      <c r="E63" t="n">
+        <v>9</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>33.33</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>20</v>
+      </c>
+      <c r="H63" t="n">
+        <v>23</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>86.96</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>18</v>
+      </c>
+      <c r="K63" t="n">
+        <v>25</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>72.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>11</v>
+      </c>
+      <c r="B64" t="n">
+        <v>23</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>47.83</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>2</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>16</v>
+      </c>
+      <c r="H64" t="n">
+        <v>22</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>72.73</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>20</v>
+      </c>
+      <c r="B65" t="n">
+        <v>22</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>11</v>
+      </c>
+      <c r="E65" t="n">
+        <v>20</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>55.00</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>2</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>12</v>
+      </c>
+      <c r="K65" t="n">
+        <v>13</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>6</v>
+      </c>
+      <c r="B66" t="n">
+        <v>8</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>10</v>
+      </c>
+      <c r="E66" t="n">
+        <v>11</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5215,6 +5577,270 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>11</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>12</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>16</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>20</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>40</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>27</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>23</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>29</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>33</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>13</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>12</v>
+      </c>
+      <c r="O33" t="n">
+        <v>3</v>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>9</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>8</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>5.1</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>20</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>35</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
